--- a/Assets/Other/Excel/StatusConfig.xlsx
+++ b/Assets/Other/Excel/StatusConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -49,16 +49,10 @@
     <t>子状态效果列表</t>
   </si>
   <si>
-    <t>状态描述</t>
-  </si>
-  <si>
-    <t>行为禁制</t>
-  </si>
-  <si>
-    <t>属性修饰</t>
-  </si>
-  <si>
-    <t>修饰参数</t>
+    <t>行为禁止</t>
+  </si>
+  <si>
+    <t>行为禁止（枚举）</t>
   </si>
   <si>
     <t>ID</t>
@@ -94,30 +88,6 @@
     <t>ActionControlType</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ChildStatus1</t>
-  </si>
-  <si>
-    <t>ActionControl</t>
-  </si>
-  <si>
-    <t>AttributeType</t>
-  </si>
-  <si>
-    <t>AttributeParams</t>
-  </si>
-  <si>
-    <t>Effect1</t>
-  </si>
-  <si>
-    <t>Effect2</t>
-  </si>
-  <si>
-    <t>Effect3</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -127,6 +97,12 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>enum_ActionControlType</t>
+  </si>
+  <si>
     <t>Vertigo</t>
   </si>
   <si>
@@ -145,9 +121,6 @@
     <t>2,3</t>
   </si>
   <si>
-    <t>移动禁止|施法禁止|攻击禁止</t>
-  </si>
-  <si>
     <t>AttackPowerModify</t>
   </si>
   <si>
@@ -157,28 +130,16 @@
     <t>其他</t>
   </si>
   <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>Add=变动数值</t>
-  </si>
-  <si>
     <t>AttackPowerPctModify</t>
   </si>
   <si>
     <t>攻击力百分比修饰</t>
   </si>
   <si>
-    <t>PercentAdd=变动数值</t>
-  </si>
-  <si>
     <t>Weak</t>
   </si>
   <si>
     <t>虚弱</t>
-  </si>
-  <si>
-    <t>AttackPowerPctModify|变动数值=-0.3</t>
   </si>
 </sst>
 </file>
@@ -186,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -214,36 +175,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +195,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -264,48 +218,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,6 +256,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -343,12 +290,26 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,7 +319,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,187 +340,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,15 +531,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -593,6 +545,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,41 +612,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,148 +634,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1173,10 +1134,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1194,13 +1155,7 @@
     <col min="11" max="12" width="20.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="17.625" style="2" customWidth="1"/>
     <col min="14" max="14" width="16.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="30.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="25.125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15.625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="23.375" style="2" customWidth="1"/>
-    <col min="20" max="22" width="15.25" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="2"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1208,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:22">
+    <row r="3" spans="3:14">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1239,280 +1194,212 @@
       <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="3:22">
+    <row r="4" spans="3:14">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="3" t="s">
+    </row>
+    <row r="5" spans="3:14">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="5" spans="3:22">
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:17">
+    <row r="6" s="1" customFormat="1" spans="3:14">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="M6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:19">
+    <row r="7" s="1" customFormat="1" spans="3:11">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:19">
+    <row r="8" s="1" customFormat="1" spans="3:11">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:16">
+    <row r="9" s="1" customFormat="1" spans="3:11">
       <c r="C9" s="1">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="7:7">

--- a/Assets/Other/Excel/StatusConfig.xlsx
+++ b/Assets/Other/Excel/StatusConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13140"/>
+    <workbookView windowWidth="10848" windowHeight="9275"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -31,30 +31,24 @@
     <t>状态类型（枚举）</t>
   </si>
   <si>
-    <t>持续时间</t>
+    <t>持续轮数</t>
   </si>
   <si>
     <t>显示在状态栏</t>
   </si>
   <si>
-    <t>能否叠加</t>
-  </si>
-  <si>
-    <t>最高叠加层数</t>
-  </si>
-  <si>
-    <t>子状态效果</t>
+    <t>最高层数</t>
   </si>
   <si>
     <t>子状态效果列表</t>
   </si>
   <si>
-    <t>行为禁止</t>
-  </si>
-  <si>
     <t>行为禁止（枚举）</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -70,21 +64,12 @@
     <t>ShowInStatusSlots</t>
   </si>
   <si>
-    <t>CanStack</t>
-  </si>
-  <si>
     <t>MaxStack</t>
   </si>
   <si>
-    <t>EnableChildrenStatuses</t>
-  </si>
-  <si>
     <t>ChildrenStatuses</t>
   </si>
   <si>
-    <t>EnabledStateModify</t>
-  </si>
-  <si>
     <t>ActionControlType</t>
   </si>
   <si>
@@ -94,15 +79,21 @@
     <t>string</t>
   </si>
   <si>
+    <t>enum_StatusType</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>int[]</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>enum_ActionControlType</t>
   </si>
   <si>
+    <t>enum_AttrType</t>
+  </si>
+  <si>
     <t>Vertigo</t>
   </si>
   <si>
@@ -112,22 +103,22 @@
     <t>Debuff</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>否</t>
+    <t>true</t>
   </si>
   <si>
     <t>2,3</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>AttackPowerModify</t>
   </si>
   <si>
     <t>攻击力修饰</t>
   </si>
   <si>
-    <t>其他</t>
+    <t>Other</t>
   </si>
   <si>
     <t>AttackPowerPctModify</t>
@@ -147,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -174,8 +165,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,6 +175,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,30 +201,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,14 +211,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,9 +232,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,30 +279,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,13 +331,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,6 +391,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,7 +463,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,145 +499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,6 +522,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -564,17 +566,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,15 +580,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +599,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -620,162 +622,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,28 +1125,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.86666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.44166666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.6" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.87037037037037" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.44444444444444" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.60185185185185" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.6666666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="20.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.5" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="17.5555555555556" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.11111111111111" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.1296296296296" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.3796296296296" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.7777777777778" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1163,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:14">
+    <row r="3" spans="3:12">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1191,128 +1180,98 @@
       <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="3:14">
+    <row r="4" spans="3:11">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="3" t="s">
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="3:14">
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:14">
+    <row r="6" s="1" customFormat="1" spans="3:11">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="1">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1">
         <v>1</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="3:11">
@@ -1320,28 +1279,25 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="1">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="3:11">
@@ -1349,28 +1305,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="1">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="3:11">
@@ -1378,28 +1331,25 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="1">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="7:7">

--- a/Assets/Other/Excel/StatusConfig.xlsx
+++ b/Assets/Other/Excel/StatusConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10848" windowHeight="9275"/>
+    <workbookView windowWidth="27195" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -25,6 +25,9 @@
     <t>状态ID</t>
   </si>
   <si>
+    <t>子类名</t>
+  </si>
+  <si>
     <t>状态名称</t>
   </si>
   <si>
@@ -46,12 +49,27 @@
     <t>行为禁止（枚举）</t>
   </si>
   <si>
-    <t>s</t>
+    <t>属性修饰</t>
+  </si>
+  <si>
+    <t>效果列表</t>
+  </si>
+  <si>
+    <t>特效资源名</t>
+  </si>
+  <si>
+    <t>音效资源名</t>
+  </si>
+  <si>
+    <t>状态描述</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>CName</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -61,7 +79,7 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>ShowInStatusSlots</t>
+    <t>ShowInSlots</t>
   </si>
   <si>
     <t>MaxStack</t>
@@ -73,6 +91,21 @@
     <t>ActionControlType</t>
   </si>
   <si>
+    <t>AttrModifyFormula</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>ParticleRes</t>
+  </si>
+  <si>
+    <t>AudioRes</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -91,7 +124,26 @@
     <t>enum_ActionControlType</t>
   </si>
   <si>
-    <t>enum_AttrType</t>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>Tenacity</t>
+  </si>
+  <si>
+    <t>Status_Tenacity</t>
+  </si>
+  <si>
+    <t>强韧</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>AddNumericType:Add#AttrType:Sanity#Num:2
+AddNumericType:Add#AttrType:Power#Num:1</t>
   </si>
   <si>
     <t>Vertigo</t>
@@ -103,10 +155,7 @@
     <t>Debuff</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>2,3</t>
+    <t>3,4</t>
   </si>
   <si>
     <t>None</t>
@@ -165,35 +214,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -202,12 +222,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -216,11 +273,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,21 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -271,46 +351,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,13 +380,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,19 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,25 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,115 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,17 +571,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,6 +585,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,9 +636,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,32 +654,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,158 +674,161 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1125,26 +1177,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.87037037037037" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.44444444444444" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.60185185185185" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.6666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.5555555555556" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.11111111111111" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.1296296296296" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.3796296296296" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.7777777777778" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="3.86666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.44166666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.5583333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.10833333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.89166666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="36.5166666666667" style="2" customWidth="1"/>
+    <col min="14" max="15" width="9" style="2"/>
+    <col min="16" max="16" width="8.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.25" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1152,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:17">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1180,180 +1237,259 @@
       <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="3:11">
+    <row r="4" spans="3:17">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="3:12">
+    <row r="5" spans="3:17">
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:11">
+    <row r="6" customFormat="1" ht="28.5" spans="3:13">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>31</v>
+      <c r="I6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:11">
+    <row r="7" s="1" customFormat="1" spans="3:12">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="I7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="1">
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:11">
+    <row r="8" s="1" customFormat="1" spans="3:12">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="I8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>31</v>
+      <c r="L8" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:11">
+    <row r="9" s="1" customFormat="1" spans="3:12">
       <c r="C9" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="1">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="I9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>31</v>
+      <c r="L9" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="10" spans="7:7">
-      <c r="G10" s="1"/>
+    <row r="10" s="1" customFormat="1" spans="3:12">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8">
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Other/Excel/StatusConfig.xlsx
+++ b/Assets/Other/Excel/StatusConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27195" windowHeight="13140"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -124,7 +124,7 @@
     <t>enum_ActionControlType</t>
   </si>
   <si>
-    <t>string[]</t>
+    <t>stringArray</t>
   </si>
   <si>
     <t>Tenacity</t>
@@ -142,44 +142,20 @@
     <t>true</t>
   </si>
   <si>
-    <t>AddNumericType:Add#AttrType:Sanity#Num:2
-AddNumericType:Add#AttrType:Power#Num:1</t>
-  </si>
-  <si>
-    <t>Vertigo</t>
-  </si>
-  <si>
-    <t>眩晕</t>
+    <t>Power_Add_Power*1.2+1
+Physique_Add_Physique*1.2+1</t>
+  </si>
+  <si>
+    <t>Violent</t>
+  </si>
+  <si>
+    <t>沉默</t>
   </si>
   <si>
     <t>Debuff</t>
   </si>
   <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>AttackPowerModify</t>
-  </si>
-  <si>
-    <t>攻击力修饰</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>AttackPowerPctModify</t>
-  </si>
-  <si>
-    <t>攻击力百分比修饰</t>
-  </si>
-  <si>
-    <t>Weak</t>
-  </si>
-  <si>
-    <t>虚弱</t>
+    <t>SkillForbid</t>
   </si>
 </sst>
 </file>
@@ -187,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -214,6 +190,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -222,12 +220,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -242,29 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -281,39 +257,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +279,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -351,8 +311,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,6 +321,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,25 +362,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,43 +488,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,103 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,6 +547,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -589,36 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -630,17 +587,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,6 +609,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -671,163 +632,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1177,319 +1153,238 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="3.86666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.44166666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.5583333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.10833333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.89166666666667" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="22.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="36.5166666666667" style="2" customWidth="1"/>
-    <col min="14" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="8.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.25" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="3.87037037037037" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5555555555556" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.11111111111111" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8796296296296" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88888888888889" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.1296296296296" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25.6666666666667" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:17">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="3:17">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="3:17">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="28.5" spans="3:13">
-      <c r="C6" s="1">
+    <row r="6" customFormat="1" ht="26.4" spans="3:13">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>2</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:12">
-      <c r="C7" s="1">
+    <row r="7" customFormat="1" ht="14.4" spans="3:13">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="J7" s="3">
+        <v>2</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:12">
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:12">
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="3:12">
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="8:8">
-      <c r="H11" s="1"/>
+      <c r="M7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Other/Excel/StatusConfig.xlsx
+++ b/Assets/Other/Excel/StatusConfig.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="28125" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
+    <sheet name="#list" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -163,9 +163,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -190,20 +190,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -220,6 +206,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -228,44 +258,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,17 +280,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,6 +310,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -311,31 +326,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,181 +356,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,11 +552,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,6 +570,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,196 +639,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -874,7 +874,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1155,27 +1155,27 @@
   <sheetPr/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="A4:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="3.87037037037037" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44444444444444" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.86666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44166666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.775" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5555555555556" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.11111111111111" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8796296296296" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5583333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.10833333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8833333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.89166666666667" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.1296296296296" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.1333333333333" style="1" customWidth="1"/>
     <col min="13" max="13" width="25.6666666666667" style="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.25" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
@@ -1326,7 +1326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="26.4" spans="3:13">
+    <row r="6" customFormat="1" ht="28.5" spans="3:13">
       <c r="C6" s="3">
         <v>1</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="14.4" spans="3:13">
+    <row r="7" customFormat="1" spans="3:13">
       <c r="C7" s="3">
         <v>2</v>
       </c>

--- a/Assets/Other/Excel/StatusConfig.xlsx
+++ b/Assets/Other/Excel/StatusConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13140"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="#list" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
+  </si>
+  <si>
+    <t>ExportClass</t>
+  </si>
+  <si>
+    <t>StatusData</t>
   </si>
   <si>
     <t>Id</t>
@@ -164,9 +170,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -190,11 +196,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,67 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,16 +225,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,9 +255,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,8 +286,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,97 +362,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,85 +524,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +560,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,17 +589,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,26 +619,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,16 +644,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,133 +671,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -874,7 +880,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1156,26 +1162,26 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="A4:H10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="3.86666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44166666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.88888888888889" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.775" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5583333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.10833333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8833333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.89166666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5555555555556" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.11111111111111" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8796296296296" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88888888888889" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.1333333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.1296296296296" style="1" customWidth="1"/>
     <col min="13" max="13" width="25.6666666666667" style="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.25" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
@@ -1185,168 +1191,176 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3" spans="3:17">
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="3:17">
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="3:17">
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="P5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="28.5" spans="3:13">
+    <row r="6" customFormat="1" ht="26.4" spans="3:13">
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J6" s="3">
         <v>2</v>
@@ -1354,35 +1368,35 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="3:13">
+    <row r="7" customFormat="1" ht="14.4" spans="3:13">
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J7" s="3">
         <v>2</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M7" s="4"/>
     </row>

--- a/Assets/Other/Excel/StatusConfig.xlsx
+++ b/Assets/Other/Excel/StatusConfig.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#list" sheetId="1" r:id="rId1"/>
+    <sheet name="&amp;StatusType" sheetId="2" r:id="rId2"/>
+    <sheet name="&amp;ActionControlType" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -162,6 +164,69 @@
   </si>
   <si>
     <t>SkillForbid</t>
+  </si>
+  <si>
+    <t>ExportEnum</t>
+  </si>
+  <si>
+    <t>状态种类枚举</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>Buff(增益)</t>
+  </si>
+  <si>
+    <t>Debuff(减益)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>行为禁制枚举</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>MoveForbid</t>
+  </si>
+  <si>
+    <t>移动禁止</t>
+  </si>
+  <si>
+    <t>施法禁止</t>
+  </si>
+  <si>
+    <t>AttackForbid</t>
+  </si>
+  <si>
+    <t>攻击禁止</t>
+  </si>
+  <si>
+    <t>MoveControl</t>
+  </si>
+  <si>
+    <t>移动控制</t>
+  </si>
+  <si>
+    <t>AttackControl</t>
+  </si>
+  <si>
+    <t>攻击控制</t>
   </si>
 </sst>
 </file>
@@ -169,18 +234,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -196,6 +274,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -203,15 +304,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,21 +374,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,29 +388,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -286,14 +396,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -301,14 +403,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -325,23 +419,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,187 +440,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,15 +631,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,15 +645,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,17 +664,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,10 +692,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -653,162 +707,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1161,248 +1246,492 @@
   <sheetPr/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="10.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5555555555556" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.11111111111111" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8796296296296" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88888888888889" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.1296296296296" style="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6666666666667" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="8.87962962962963" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.25" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.3333333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.4444444444444" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.88888888888889" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.5555555555556" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.11111111111111" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.8796296296296" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.88888888888889" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="22.1296296296296" style="4" customWidth="1"/>
+    <col min="13" max="13" width="25.6666666666667" style="4" customWidth="1"/>
+    <col min="14" max="15" width="9" style="4"/>
+    <col min="16" max="16" width="8.87962962962963" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.25" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="3:17">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="3:17">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="3:17">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="26.4" spans="3:13">
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>0</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>2</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4" t="s">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="14.4" spans="3:13">
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>0</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>2</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3" t="s">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="9.11111111111111" customWidth="1"/>
+    <col min="4" max="4" width="11.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="15.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="17.2222222222222" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="22.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="10.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" ht="17.4" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" ht="17.4" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" ht="17.4" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" ht="17.4" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" ht="17.4" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" ht="17.4" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" ht="17.4" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" ht="17.4" spans="3:5">
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Assets/Other/Excel/StatusConfig.xlsx
+++ b/Assets/Other/Excel/StatusConfig.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#list" sheetId="1" r:id="rId1"/>
     <sheet name="&amp;StatusType" sheetId="2" r:id="rId2"/>
     <sheet name="&amp;ActionControlType" sheetId="3" r:id="rId3"/>
+    <sheet name="枷锁（种族）" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -236,8 +237,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -274,6 +275,72 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -284,58 +351,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,14 +388,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -373,14 +404,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -397,29 +420,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,19 +441,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,19 +537,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,139 +621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,17 +665,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -686,33 +676,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,151 +694,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,8 +1247,8 @@
   <sheetPr/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="6"/>
@@ -1599,7 +1600,7 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1734,4 +1735,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Assets/Other/Excel/StatusConfig.xlsx
+++ b/Assets/Other/Excel/StatusConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="#list" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>SkillForbid</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
   <si>
     <t>ExportEnum</t>
@@ -235,12 +238,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +278,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -282,29 +321,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,16 +337,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,76 +414,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -420,7 +423,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,187 +451,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,17 +645,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,17 +675,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,20 +718,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,160 +737,160 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -892,6 +902,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1245,17 +1258,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="10.3333333333333" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.4444444444444" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.88888888888889" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.88888888888889" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="14.7777777777778" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="4" customWidth="1"/>
@@ -1453,7 +1466,7 @@
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1484,7 +1497,12 @@
       <c r="L7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" ht="17.4" spans="3:3">
+      <c r="C8" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1523,13 +1541,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1541,13 +1559,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1560,7 +1578,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1573,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1583,10 +1601,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1624,13 +1642,13 @@
     </row>
     <row r="2" ht="17.4" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1643,13 +1661,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" ht="17.4" spans="1:6">
@@ -1659,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -1673,10 +1691,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1690,7 +1708,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -1700,10 +1718,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -1713,10 +1731,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -1725,10 +1743,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1742,7 +1760,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
